--- a/public/template/laporan/Laporan Mutasi Kayu Olahan.xlsx
+++ b/public/template/laporan/Laporan Mutasi Kayu Olahan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PKL\PKL_DLH_uji2\public\template\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23D896-1E8B-40D3-8DCF-196357CA3F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C58B5-9F09-4ACA-9CE1-FBA59EC7AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2AD5A86D-9142-4266-931F-E0186FCDEF72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AD5A86D-9142-4266-931F-E0186FCDEF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Bulan / Tahun</t>
   </si>
@@ -82,18 +82,12 @@
     <t>Laporan Mutasi Kayu Olahan</t>
   </si>
   <si>
-    <t>Jenis Olahan</t>
-  </si>
-  <si>
     <t>* Jangan Ubah Format Excel</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Penambahan</t>
-  </si>
-  <si>
     <t>PT. DLHK JAWA TENGAH</t>
   </si>
   <si>
@@ -122,6 +116,30 @@
   </si>
   <si>
     <t>3,309.106</t>
+  </si>
+  <si>
+    <t>Jenis Kayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penambahan </t>
+  </si>
+  <si>
+    <t>Jumlah Btg</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Jumlah Kpg</t>
   </si>
 </sst>
 </file>
@@ -260,23 +278,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -286,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,57 +321,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -363,6 +401,18 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -802,32 +852,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01782300-FA2E-4D87-80D0-1A82FA14221C}" name="Table1" displayName="Table1" ref="A15:G25" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A15:G25" xr:uid="{01782300-FA2E-4D87-80D0-1A82FA14221C}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{78221867-DB57-4FA1-B9A2-466F865756F7}" name="1"/>
-    <tableColumn id="2" xr3:uid="{368BDB1D-2724-4AA5-935B-DF89458B0CB1}" name="2"/>
-    <tableColumn id="3" xr3:uid="{D78980AA-1F45-4E9C-B10B-2AC5E08AA869}" name="3"/>
-    <tableColumn id="4" xr3:uid="{F5F22384-7163-4844-8016-D921DB394424}" name="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6E3A490B-E5DE-4D99-BAEB-2BC0E0DE8F18}" name="5"/>
-    <tableColumn id="6" xr3:uid="{B935BDF1-4E07-4EDC-9CC8-1934ACB8B730}" name="6"/>
-    <tableColumn id="7" xr3:uid="{78AE7F48-7720-4320-9C27-96EF6D39D87F}" name="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705DD6C7-AD86-4791-974C-9997D627A9BA}" name="Table14" displayName="Table14" ref="A15:K25" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A15:K25" xr:uid="{705DD6C7-AD86-4791-974C-9997D627A9BA}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{AE34C2A1-912C-44FA-BCD8-3A8A0C604621}" name="1"/>
+    <tableColumn id="2" xr3:uid="{2801E3E3-F169-4C84-A64A-B2C3065A8B4F}" name="2"/>
+    <tableColumn id="3" xr3:uid="{051E685B-4BA0-44E2-A1CC-F9DDE5CD4C8D}" name="3"/>
+    <tableColumn id="4" xr3:uid="{C48D8B13-A9F8-4C39-A63F-5DE8496F635C}" name="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{48E5BE7E-C735-4C3E-AE5C-4A833D93FCA7}" name="5"/>
+    <tableColumn id="6" xr3:uid="{F41F3C55-53F1-45C7-9D00-CAE194A35620}" name="6"/>
+    <tableColumn id="7" xr3:uid="{7BDFBDCF-31BF-4EB2-8AE0-61F22F88B7CC}" name="7"/>
+    <tableColumn id="8" xr3:uid="{554F2C8A-91BA-44EB-BABE-2B99AECD1331}" name="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{0684FD04-C6AE-4DBE-A0CA-B93276015CB3}" name="9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{C74A4D00-0F4B-412F-9750-7A15799804EE}" name="10" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{6904A00F-13D1-4DC4-A336-5665BC7A85BD}" name="11" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98050113-4703-401C-A150-8DAE29994D45}" name="Table13" displayName="Table13" ref="A15:G25" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A15:G25" xr:uid="{98050113-4703-401C-A150-8DAE29994D45}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2988E44F-29EE-4D0C-BF91-58A48B146BB8}" name="1"/>
-    <tableColumn id="2" xr3:uid="{99D748AD-A246-470D-9126-831CF57E829C}" name="2"/>
-    <tableColumn id="3" xr3:uid="{24E3E816-EC88-4E93-AD44-481B7D19F454}" name="3"/>
-    <tableColumn id="4" xr3:uid="{EAEAFEA7-3809-4CAA-A67A-342AF2D9401C}" name="4" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{43CA9FF1-1568-46F9-B9C2-9EBED46CC569}" name="5"/>
-    <tableColumn id="6" xr3:uid="{3428749C-DABE-496B-9499-F50A942B38A8}" name="6"/>
-    <tableColumn id="7" xr3:uid="{6862DC3B-5699-469B-8198-F7131D23C911}" name="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86C681A7-9ED7-4C75-BB46-6413A419093D}" name="Table147" displayName="Table147" ref="A15:K25" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A15:K25" xr:uid="{86C681A7-9ED7-4C75-BB46-6413A419093D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{27760ED8-2834-45CA-B7F7-A2783839D5ED}" name="1"/>
+    <tableColumn id="2" xr3:uid="{461EF044-8350-4B7B-AEF4-7F7B58026804}" name="2"/>
+    <tableColumn id="3" xr3:uid="{9338780A-F19E-4DB4-B375-4ABA8C88D210}" name="3"/>
+    <tableColumn id="4" xr3:uid="{877EBE39-7E0E-4C3F-96D1-B9147127A227}" name="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{518E93A7-2FDF-4834-93CE-92B9D92D396D}" name="5"/>
+    <tableColumn id="6" xr3:uid="{2C529EE9-74CA-4F70-9B6F-B3B341ED6291}" name="6"/>
+    <tableColumn id="7" xr3:uid="{86F65954-22B4-40F7-9D51-7287FA51384C}" name="7"/>
+    <tableColumn id="8" xr3:uid="{78DC0F01-6867-44E6-8E27-FB3E67A49BAA}" name="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{10341E94-9090-4880-AD72-5C47B3E912D5}" name="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{CA474E26-2C80-424A-AF1C-293E1DB9C93C}" name="10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{9AD71F21-2895-4EFF-8A87-F4961E5BDD38}" name="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1130,55 +1188,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC405B0-C0B1-40C5-8B45-93D30DF96482}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K25" sqref="A13:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
+    <col min="3" max="10" width="20.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
@@ -1186,7 +1242,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -1194,7 +1250,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
@@ -1202,7 +1258,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -1210,7 +1266,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -1218,7 +1274,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -1226,7 +1282,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -1234,7 +1290,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -1242,57 +1298,73 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1312,10 +1384,22 @@
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1323,7 +1407,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1331,7 +1415,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1339,7 +1423,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1347,7 +1431,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1355,7 +1439,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1363,7 +1447,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1371,7 +1455,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1379,7 +1463,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1387,7 +1471,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1396,13 +1480,16 @@
       <c r="G25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="9">
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1415,283 +1502,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A71412B-0628-4CDB-8628-CEC5F4588926}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView topLeftCell="A4" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="6" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="26.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="14" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16">
+        <v>211115</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19">
-        <v>211115</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="J17" s="13">
         <v>247789</v>
       </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1699,7 +1798,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1707,7 +1806,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1715,7 +1814,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1724,13 +1823,16 @@
       <c r="G25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
